--- a/public/datasets/peru_mapa_vab2018.xlsx
+++ b/public/datasets/peru_mapa_vab2018.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -104,6 +103,18 @@
   </si>
   <si>
     <t>Lima Province</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Jungle</t>
+  </si>
+  <si>
+    <t>Highlands</t>
+  </si>
+  <si>
+    <t>Coast</t>
   </si>
 </sst>
 </file>
@@ -539,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +562,7 @@
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,8 +572,11 @@
       <c r="C1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -572,8 +586,11 @@
       <c r="C2">
         <v>0.64106802427371101</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -583,8 +600,11 @@
       <c r="C3">
         <v>4.2589947375358754</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -594,8 +614,11 @@
       <c r="C4">
         <v>1.4654955317438583</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -605,8 +628,11 @@
       <c r="C5">
         <v>6.4747450841674281</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -616,8 +642,11 @@
       <c r="C6">
         <v>1.1839695192027955</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -627,8 +656,11 @@
       <c r="C7">
         <v>2.3031494908772103</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -638,8 +670,11 @@
       <c r="C8">
         <v>4.4629077080349138</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -649,8 +684,11 @@
       <c r="C9">
         <v>0.73052163321098484</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -660,8 +698,11 @@
       <c r="C10">
         <v>1.2354489397823221</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -671,8 +712,11 @@
       <c r="C11">
         <v>3.4907698840911849</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -682,8 +726,11 @@
       <c r="C12">
         <v>3.1772133011484058</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -693,8 +740,11 @@
       <c r="C13">
         <v>4.5026785507447107</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -704,8 +754,11 @@
       <c r="C14">
         <v>2.4332742228089388</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -715,8 +768,11 @@
       <c r="C15">
         <v>3.532156667206876</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -726,8 +782,11 @@
       <c r="C16">
         <v>4.5663932717537508</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -737,8 +796,11 @@
       <c r="C17">
         <v>40.078812785277727</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -748,8 +810,11 @@
       <c r="C18">
         <v>1.8369700092727019</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -759,8 +824,11 @@
       <c r="C19">
         <v>0.46232486752434204</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -770,8 +838,11 @@
       <c r="C20">
         <v>1.8048757058524321</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -781,8 +852,11 @@
       <c r="C21">
         <v>1.0962786422044704</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -792,8 +866,11 @@
       <c r="C22">
         <v>4.0662198315953253</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -803,8 +880,11 @@
       <c r="C23">
         <v>2.0053203665998884</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -814,8 +894,11 @@
       <c r="C24">
         <v>1.246481330884242</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -825,8 +908,11 @@
       <c r="C25">
         <v>1.4623837157154087</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -836,8 +922,11 @@
       <c r="C26">
         <v>0.56853306467768994</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -847,12 +936,15 @@
       <c r="C27">
         <v>0.91301311381280448</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="9"/>
     </row>
